--- a/biology/Zoologie/Danio_kyathit/Danio_kyathit.xlsx
+++ b/biology/Zoologie/Danio_kyathit/Danio_kyathit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danio kyathit est une espèce de petits poissons de la famille des Cyprinidae, native de Birmanie. Il existe deux formes de couleur reconnues, la rayée qui est vendue sous le nom Orange finned danio et celle à points ou Ocelot danio.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 novembre 2018) :
 non-classé Danio kyathit 'spotted'
 non-classé Danio kyathit 'striped'</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Danio kyathit est de 35 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Danio kyathit est de 35 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, kyathit, « léopard » en birman, lui a été donné en référence à sa livrée[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, kyathit, « léopard » en birman, lui a été donné en référence à sa livrée.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fang, 1998 : Danio kyathit, a new species of cyprinid fish from Myitkyina, northern Myanmar. Ichthyological Exploration of Freshwaters, vol. 8, n. 3, p. 273-280[5].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fang, 1998 : Danio kyathit, a new species of cyprinid fish from Myitkyina, northern Myanmar. Ichthyological Exploration of Freshwaters, vol. 8, n. 3, p. 273-280.</t>
         </is>
       </c>
     </row>
